--- a/biology/Botanique/Jardin_des_plantes_de_Lille/Jardin_des_plantes_de_Lille.xlsx
+++ b/biology/Botanique/Jardin_des_plantes_de_Lille/Jardin_des_plantes_de_Lille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin des plantes de Lille est un jardin botanique situé au sud de Lille, au sud du quartier de Moulins. Il a été inscrit Monument historique en décembre 1997[1].
+Le jardin des plantes de Lille est un jardin botanique situé au sud de Lille, au sud du quartier de Moulins. Il a été inscrit Monument historique en décembre 1997.
 Ce site est desservi par la station de métro Porte de Douai - Jardin des Plantes. (emprunter ensuite la rue Louise Michel, sur le site de l'ancienne route de Tournai du temps de la traction animale... ). Deux autres accès  "piéton" : porte d'Arras et côté Serre Équatoriale.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Inauguré en 1948, le Jardin des plantes a été aménagé par l'architecte Jean Dubuisson et le paysagiste Jacques Marquis, ingénieur de l'École Nationale d'Horticulture de Versailles - sur une parcelle de près de 11 hectares à l'emplacement des anciennes fortifications du sud-est de la ville et située entre les portes de Douai et d'Arras. Une orangerie est construite en 1952. Une serre équatoriale, conçue par l'architecte Jean-Pierre Secq, en 1970, a rassemblé toutes les plantes qui avaient été ramenées par les explorateurs ...
 En 2006, est mis en place un partenariat avec la faculté de Pharmacie de Lille qui possède chez elle ses collections spécifiques.
@@ -546,7 +560,9 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est conçu selon le style mixte (ou composite), qui mêle classicisme du jardin à la française et composition de jardin à l'anglaise, privilégiant au travers de grandes pelouses et des différents strates arborées en bosquets, les effets de profondeur et de perspective atmosphérique.
 Le jardin suit, dans sa partie centrale, une construction à la française dont certains thèmes s’inspirent de Versailles. En particulier l’ensemble formé par les bassins, la roseraie et le péristyle développe une perspective répondant à l’imposante façade du lycée Baggio, ancien Institut Diderot (architecte Jacques Lalleman), conçu comme un véritable palais de l’enseignement et du travail.
@@ -591,7 +607,9 @@
           <t>La serre équatoriale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La spectaculaire serre équatoriale, édifiée entre 1969 et 1970, œuvre majeure de l’architecte Jean-Pierre Secq, est d'un grand intérêt architectural. L’architecte a su proposer une réponse très originale à cet ambitieux programme. Cet édifice de béton, d’acier et de verre avec ses plates-formes en porte à faux donnent au vaste étage l’aspect de jardins suspendus.
 Son programme, son vocabulaire formel et sa construction confèrent à cet édifice un caractère exceptionnel dont on peut dire qu’il représente, avec les serres de Barbican center de Londres (néanmoins formellement très différentes), un témoignage unique en son genre, d’une serre équatoriale d’expression brutaliste.
@@ -625,7 +643,9 @@
           <t>Visites guidées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est possible de bénéficier de visites guidées gratuites, en contactant l'équipe du service animation de la Direction Parcs et Jardins, en mairie.
 </t>
@@ -656,10 +676,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin accueille tous les ans différents évènements, telle la Fête des Fleurs qui chaque printemps propose visites, activités autour de la nature et marché aux plantes ornementales. 
-Depuis 2014, le jardin des plantes accueille un festival de musique électronique Le Jardin Électronique[2] qui en l'espace de quelques années est devenu la plus grande garden party électro des Hauts de France, accueillant en 2019 plus de 27000 personnes sur 3 jours.
+Depuis 2014, le jardin des plantes accueille un festival de musique électronique Le Jardin Électronique qui en l'espace de quelques années est devenu la plus grande garden party électro des Hauts de France, accueillant en 2019 plus de 27000 personnes sur 3 jours.
 </t>
         </is>
       </c>
